--- a/SeleniumAndRestAssuredJavaFramework/APITestCases.xlsx
+++ b/SeleniumAndRestAssuredJavaFramework/APITestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ningappakanamadi/git/UIAutomationNingappaKanamadi/SeleniumJavaFramework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ningappakanamadi/AbhiTest/RestAssured-UIAutomation/SeleniumAndRestAssuredJavaFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE308B3-776B-B340-9D5D-AF6B467DA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1DA6DF-A8BF-DE47-BA72-EE47D0AAA2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{0D852AAB-455D-594F-9FAD-DCE7E2139465}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>CreateBoard</t>
   </si>
@@ -195,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -264,6 +270,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA341954-856B-8F43-B351-2F7037301B29}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,6 +827,26 @@
         <v>35</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D0240DD0-9B5C-9145-A466-079F084783CE}"/>
@@ -826,6 +858,7 @@
     <hyperlink ref="D9" r:id="rId7" xr:uid="{8E02891C-A172-3C4B-ABAC-647B44525D85}"/>
     <hyperlink ref="D10" r:id="rId8" xr:uid="{57873E3A-6057-FA4B-8787-A494562F5C65}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{5D5DCA77-3A8E-5942-9128-C2234C380734}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{D5E66A46-0089-5342-A09B-62C8527AD960}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
